--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints4.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints4.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.793176610615588e-08</v>
+        <v>1.760926565915114e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.789393359055815e-08</v>
+        <v>1.805920552555466e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.80372709751224e-08</v>
+        <v>1.857720889389113e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.834838224986958e-08</v>
+        <v>1.915968996091906e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.881387140482104e-08</v>
+        <v>1.980306292339895e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.94203424299981e-08</v>
+        <v>2.050374197809072e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.015439931542313e-08</v>
+        <v>2.125814132175525e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.100264605111548e-08</v>
+        <v>2.206267515115045e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.195168662709734e-08</v>
+        <v>2.291375766303716e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.298812503339144e-08</v>
+        <v>2.380780305417646e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.409856526001635e-08</v>
+        <v>2.474122552132589e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.526961129699469e-08</v>
+        <v>2.571043926124648e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.648786713434938e-08</v>
+        <v>2.671185847069943e-08</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.773993676209854e-08</v>
+        <v>2.774189734644202e-08</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.901242417026502e-08</v>
+        <v>2.879697008523539e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.029193334887016e-08</v>
+        <v>2.987349088383946e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.156506828793691e-08</v>
+        <v>3.096787393901554e-08</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.281843297748324e-08</v>
+        <v>3.207653344752065e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.403899322711099e-08</v>
+        <v>3.319588113973099e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>3.522099094385138e-08</v>
+        <v>3.432227914766132e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>3.636540661418534e-08</v>
+        <v>3.545204366901397e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>3.747347484205307e-08</v>
+        <v>3.658148916927467e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>3.854643023139315e-08</v>
+        <v>3.770693011392767e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>3.958550738614554e-08</v>
+        <v>3.882468096845867e-08</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>4.059194091024609e-08</v>
+        <v>3.993105619834892e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>4.156696540763483e-08</v>
+        <v>4.102237026908421e-08</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>4.251181548225155e-08</v>
+        <v>4.209493764615011e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>4.342772573803241e-08</v>
+        <v>4.314507279502808e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>4.431593077891722e-08</v>
+        <v>4.416909018120375e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>4.517766520884463e-08</v>
+        <v>4.516330427016137e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>4.601416363175431e-08</v>
+        <v>4.612402952738644e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>4.682666065158265e-08</v>
+        <v>4.704758041836062e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>4.761639087226937e-08</v>
+        <v>4.793027140856947e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>4.838458889775411e-08</v>
+        <v>4.876841696349829e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>4.913193809608901e-08</v>
+        <v>4.955854184816377e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>4.985543255718652e-08</v>
+        <v>5.029857830757518e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>5.055055221190007e-08</v>
+        <v>5.098703624678605e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>5.121277237451265e-08</v>
+        <v>5.162242733209318e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>5.183756835931006e-08</v>
+        <v>5.220326322979622e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>5.242041548057714e-08</v>
+        <v>5.272805560619384e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>5.295678905259941e-08</v>
+        <v>5.319531612758527e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>5.344216438966032e-08</v>
+        <v>5.360355646026798e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>5.387201680604544e-08</v>
+        <v>5.395128827054126e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>5.424182161604008e-08</v>
+        <v>5.423702322470416e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>5.454705413392809e-08</v>
+        <v>5.445927298905457e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>5.478318967399486e-08</v>
+        <v>5.461654922989159e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>5.494570355052525e-08</v>
+        <v>5.470736361351389e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>5.503007107780414e-08</v>
+        <v>5.473022780622014e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>5.503176757011618e-08</v>
+        <v>5.468365347430892e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>5.494693686002317e-08</v>
+        <v>5.456663110865377e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>5.478031723911622e-08</v>
+        <v>5.438430696031122e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>5.4542609364135e-08</v>
+        <v>5.414609780974e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>5.424463382810486e-08</v>
+        <v>5.386150634146882e-08</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>5.38972112240508e-08</v>
+        <v>5.354003524002614e-08</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>5.35111621449992e-08</v>
+        <v>5.319118718994166e-08</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>5.309730718397518e-08</v>
+        <v>5.282446487574392e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>5.266646693400419e-08</v>
+        <v>5.244937098196177e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>5.222946198811118e-08</v>
+        <v>5.207540819312364e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>5.179711293932279e-08</v>
+        <v>5.17120791937594e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>5.138024038066392e-08</v>
+        <v>5.136888666839744e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>5.09896649051596e-08</v>
+        <v>5.105533330156626e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>5.063589671390812e-08</v>
+        <v>5.078062021305893e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>5.03218123784853e-08</v>
+        <v>5.054653198484203e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>5.004236950378785e-08</v>
+        <v>5.034715943856121e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>4.979215821125944e-08</v>
+        <v>5.017623636321842e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>4.95657686223446e-08</v>
+        <v>5.002749654781618e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>4.935779085848695e-08</v>
+        <v>4.989467378135639e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>4.916281504113017e-08</v>
+        <v>4.9771501852841e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>4.897543129171868e-08</v>
+        <v>4.965171455127243e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>4.879022973169617e-08</v>
+        <v>4.952904566565264e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>4.860180048250631e-08</v>
+        <v>4.939722898498355e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>4.840473366559353e-08</v>
+        <v>4.924999829826764e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>4.819361940240151e-08</v>
+        <v>4.908108739450684e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>4.796304781437418e-08</v>
+        <v>4.888423006270327e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>4.770760902295512e-08</v>
+        <v>4.86531600918587e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>4.742189314958894e-08</v>
+        <v>4.838161127097587e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>4.710049031571923e-08</v>
+        <v>4.80633173890566e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>4.673799064278945e-08</v>
+        <v>4.769201223510249e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>4.632898425224445e-08</v>
+        <v>4.726142959811662e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.586806126552772e-08</v>
+        <v>4.676530326710064e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>4.53498118040832e-08</v>
+        <v>4.619736703105669e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>4.476882598935403e-08</v>
+        <v>4.555135467898597e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>4.411969394278563e-08</v>
+        <v>4.482099999989228e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>4.339700578582122e-08</v>
+        <v>4.400003678277694e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>4.259535163990365e-08</v>
+        <v>4.30821988166408e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>4.170932162647895e-08</v>
+        <v>4.206121989048839e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>4.073350586699002e-08</v>
+        <v>4.093083379332066e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.966717308889069e-08</v>
+        <v>3.969122542553259e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.853391208153976e-08</v>
+        <v>3.837611348542841e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.736518913171036e-08</v>
+        <v>3.703007858471235e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.619247456772697e-08</v>
+        <v>3.569770690779608e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>3.504723871791402e-08</v>
+        <v>3.442358463909134e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>3.396095191060048e-08</v>
+        <v>3.325229796301485e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>3.296508447411072e-08</v>
+        <v>3.222843306397823e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>3.20911067367696e-08</v>
+        <v>3.139657612639388e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>3.137048902690539e-08</v>
+        <v>3.080131333467739e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>3.083470167284274e-08</v>
+        <v>3.048723087324086e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>3.051521500290758e-08</v>
+        <v>3.049891492649763e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>3.044349934542589e-08</v>
+        <v>3.088095167886181e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>3.065102502872383e-08</v>
+        <v>3.167792731474579e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.411501004828325e-08</v>
+        <v>1.420056623929161e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.830523792303004e-08</v>
+        <v>1.847157118676342e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.752187443886367e-08</v>
+        <v>1.794917605058043e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.414067570289705e-08</v>
+        <v>2.43202382935527e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>3.043233905275195e-08</v>
+        <v>3.029433467504386e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>3.114916355088056e-08</v>
+        <v>3.102684215521607e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>5.13155751279278e-08</v>
+        <v>5.150853522478954e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.361796476059567e-07</v>
+        <v>1.366620342191001e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.755111410840947e-07</v>
+        <v>2.762520607457748e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.438340577126489e-07</v>
+        <v>3.45120391859894e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.645440577721397e-07</v>
+        <v>3.653220024283032e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.671520356406748e-07</v>
+        <v>3.665154015932298e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.55873370755837e-07</v>
+        <v>3.549437421989009e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.388481741398839e-07</v>
+        <v>3.387352486932664e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.25910174129721e-07</v>
+        <v>3.264884770711453e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.181250703729735e-07</v>
+        <v>3.183344148967596e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.153143669087347e-07</v>
+        <v>3.14380473305229e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.220276586809992e-07</v>
+        <v>3.223160202955149e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.15782790795689e-07</v>
+        <v>3.165818854365859e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.086275313984958e-07</v>
+        <v>3.082097638327566e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.131525720048185e-07</v>
+        <v>3.123753951245982e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>3.123957191981607e-07</v>
+        <v>3.117847603154264e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>3.078621055266078e-07</v>
+        <v>3.075719291825545e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>3.033931127643475e-07</v>
+        <v>3.03335426391904e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.984683929319074e-07</v>
+        <v>2.985432425955424e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.920950803226538e-07</v>
+        <v>2.922158967647092e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.833018360069844e-07</v>
+        <v>2.833966026158928e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.713369640334703e-07</v>
+        <v>2.713601339095317e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.555771764667606e-07</v>
+        <v>2.55516639395484e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.35429327962752e-07</v>
+        <v>2.353064825489546e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>2.114091736335507e-07</v>
+        <v>2.112783254191097e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.85472903542723e-07</v>
+        <v>1.854204831760499e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.596729678111931e-07</v>
+        <v>1.598174787997847e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35816669136184e-07</v>
+        <v>1.36285018028472e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.140945919255175e-07</v>
+        <v>1.148659886572896e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>9.404530228883785e-08</v>
+        <v>9.488887270722922e-08</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>7.562209344231444e-08</v>
+        <v>7.622327363525543e-08</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>5.963797855718748e-08</v>
+        <v>5.985973021898239e-08</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>4.697362987937209e-08</v>
+        <v>4.688251395602746e-08</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.774674226768654e-08</v>
+        <v>3.749020581842406e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>3.137526728110356e-08</v>
+        <v>3.106910056698652e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.725125855097045e-08</v>
+        <v>2.697542975290017e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.476676970863946e-08</v>
+        <v>2.456542492735515e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.331385438545702e-08</v>
+        <v>2.319531764153591e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>2.23081257488864e-08</v>
+        <v>2.224657240846616e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.148885001024249e-08</v>
+        <v>2.144729574907014e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.083045699447175e-08</v>
+        <v>2.077746138825147e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.031267029240641e-08</v>
+        <v>2.02227128311643e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.991521349487899e-08</v>
+        <v>1.976869358296298e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.96178101927225e-08</v>
+        <v>1.940104714880247e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.940018397676942e-08</v>
+        <v>1.91054170338371e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.92420584378524e-08</v>
+        <v>1.886744674322139e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.912315716680405e-08</v>
+        <v>1.86727797821098e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.902587269691627e-08</v>
+        <v>1.85088742321942e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.894581950367212e-08</v>
+        <v>1.837217758818017e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.888269897752937e-08</v>
+        <v>1.8261915980932e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.883621370541561e-08</v>
+        <v>1.817731635477714e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.880606627425837e-08</v>
+        <v>1.811760565404288e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.87919592709852e-08</v>
+        <v>1.808201082305657e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.879359528252365e-08</v>
+        <v>1.806975880614554e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.881067689580127e-08</v>
+        <v>1.808007654763715e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.88429066977456e-08</v>
+        <v>1.811219099185875e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.888998727528422e-08</v>
+        <v>1.816532908313769e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.895162121534464e-08</v>
+        <v>1.823871776580128e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.902751110485443e-08</v>
+        <v>1.833158398417689e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.911735953074112e-08</v>
+        <v>1.844315468259185e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.922086907993232e-08</v>
+        <v>1.857265680537358e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.93377423393555e-08</v>
+        <v>1.871931729684929e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.946768189593824e-08</v>
+        <v>1.88823631013464e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.961039033660815e-08</v>
+        <v>1.906102116319234e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.976557024829268e-08</v>
+        <v>1.925451842671427e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.99329242179194e-08</v>
+        <v>1.946208183623963e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.011215483241589e-08</v>
+        <v>1.968293833609576e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.030296467870977e-08</v>
+        <v>1.991631487061011e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.050505634372843e-08</v>
+        <v>2.016143838410982e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.07181324143995e-08</v>
+        <v>2.041753582092234e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.094189547765063e-08</v>
+        <v>2.068383412537513e-08</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.117604812040917e-08</v>
+        <v>2.095956024179529e-08</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.142029292960277e-08</v>
+        <v>2.12439411145103e-08</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.167433249215897e-08</v>
+        <v>2.153620368784748e-08</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.193786939500545e-08</v>
+        <v>2.183557490613434e-08</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.221060622506951e-08</v>
+        <v>2.214128171369793e-08</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.249224556927884e-08</v>
+        <v>2.245255105486574e-08</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.278249001456097e-08</v>
+        <v>2.276860987396512e-08</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.308104214784359e-08</v>
+        <v>2.308868511532354e-08</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.338760455605398e-08</v>
+        <v>2.341200372326808e-08</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.370187982611982e-08</v>
+        <v>2.373779264212622e-08</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.402357069735526e-08</v>
+        <v>2.406527902637902e-08</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.435292439144111e-08</v>
+        <v>2.439444091699628e-08</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.469195553893486e-08</v>
+        <v>2.472769375884976e-08</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.504303675760405e-08</v>
+        <v>2.506794669096095e-08</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.540854066521572e-08</v>
+        <v>2.541810885235096e-08</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.57908398795374e-08</v>
+        <v>2.57810893820413e-08</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.619230701833647e-08</v>
+        <v>2.615979741905336e-08</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.66153146993805e-08</v>
+        <v>2.65571421024087e-08</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.706223554043648e-08</v>
+        <v>2.697603257112833e-08</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.753544215927197e-08</v>
+        <v>2.741937796423381e-08</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.803730717365435e-08</v>
+        <v>2.789008742074652e-08</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.857020320135122e-08</v>
+        <v>2.839107007968807e-08</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.91365028601295e-08</v>
+        <v>2.892523508007939e-08</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.973857876775678e-08</v>
+        <v>2.949549156094206e-08</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>3.037880354200074e-08</v>
+        <v>3.010474866129776e-08</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>3.105954980062815e-08</v>
+        <v>3.075591552016732e-08</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>3.178319016140671e-08</v>
+        <v>3.145190127657237e-08</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>3.255209724210374e-08</v>
+        <v>3.21956150695343e-08</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>3.336864366048704e-08</v>
+        <v>3.298996603807485e-08</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.423520203432322e-08</v>
+        <v>3.383786332121469e-08</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.515414498138002e-08</v>
+        <v>3.474221605797555e-08</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.612784511942526e-08</v>
+        <v>3.570593338737924e-08</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>3.715867506622544e-08</v>
+        <v>3.673192444844627e-08</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>3.824900743954836e-08</v>
+        <v>3.782309838019846e-08</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>3.940121485716139e-08</v>
+        <v>3.898236432165716e-08</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>4.061766993683247e-08</v>
+        <v>4.021263141184434e-08</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>4.190074529632787e-08</v>
+        <v>4.151680878978026e-08</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>4.325495370537402e-08</v>
+        <v>4.289975501401462e-08</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>4.46962424852571e-08</v>
+        <v>4.437674413626493e-08</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>4.624436216082688e-08</v>
+        <v>4.596651446659961e-08</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>4.791906581817295e-08</v>
+        <v>4.768780664806691e-08</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>4.974010654338421e-08</v>
+        <v>4.95593613237144e-08</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>5.17272374225505e-08</v>
+        <v>5.15999191365906e-08</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>5.390021154175897e-08</v>
+        <v>5.382822072974132e-08</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.62787819870994e-08</v>
+        <v>5.626300674621494e-08</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.888270184466193e-08</v>
+        <v>5.892301782906037e-08</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>6.173172420053314e-08</v>
+        <v>6.182699462132272e-08</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>6.484560214080306e-08</v>
+        <v>6.499367776605081e-08</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>6.824408875156063e-08</v>
+        <v>6.844180790629214e-08</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>7.194693711889652e-08</v>
+        <v>7.219012568509611e-08</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>7.597390032889626e-08</v>
+        <v>7.625737174550687e-08</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>8.034473146765045e-08</v>
+        <v>8.066228673057368e-08</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>8.507918362125018e-08</v>
+        <v>8.542361128334633e-08</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>9.01970098757801e-08</v>
+        <v>9.056008604686809e-08</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>9.573079479919116e-08</v>
+        <v>9.610343671034015e-08</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.01849426644846e-07</v>
+        <v>1.022233239002541e-07</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.088039858444295e-07</v>
+        <v>1.091725840789448e-07</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.168466862456042e-07</v>
+        <v>1.172052006891924e-07</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.262297416960416e-07</v>
+        <v>1.265751571737862e-07</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.372053660434105e-07</v>
+        <v>1.375364369755128e-07</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.500257731353857e-07</v>
+        <v>1.503430235371647e-07</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.649431768196245e-07</v>
+        <v>1.652489003015171e-07</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.822097909438009e-07</v>
+        <v>1.825080507113615e-07</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>2.020778293555932e-07</v>
+        <v>2.023744582094942e-07</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.247995059026521e-07</v>
+        <v>2.251021062386836e-07</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.506270344326549e-07</v>
+        <v>2.509449782417246e-07</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.79812628793284e-07</v>
+        <v>2.801570576614176e-07</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>3.125470486238517e-07</v>
+        <v>3.129306429843862e-07</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>3.482682616190197e-07</v>
+        <v>3.487024141749825e-07</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>3.859096916383361e-07</v>
+        <v>3.864026129049891e-07</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>4.243954634728699e-07</v>
+        <v>4.249521468616353e-07</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>4.626497019136367e-07</v>
+        <v>4.632719237320978e-07</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>4.995965317517053e-07</v>
+        <v>5.002828512036055e-07</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>5.341600777781268e-07</v>
+        <v>5.349058369633704e-07</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>5.652644647839652e-07</v>
+        <v>5.660617886986172e-07</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>5.918338175602437e-07</v>
+        <v>5.926716140965293e-07</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>6.127922608980279e-07</v>
+        <v>6.136562208443333e-07</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>6.270639195883739e-07</v>
+        <v>6.279365166292458e-07</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>6.335729184223198e-07</v>
+        <v>6.344334091384652e-07</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>6.312433821909246e-07</v>
+        <v>6.320678060592115e-07</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>6.190997146924952e-07</v>
+        <v>6.198613074517258e-07</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>5.975929450234042e-07</v>
+        <v>5.982680194472332e-07</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>5.682357373599514e-07</v>
+        <v>5.688080594829599e-07</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>5.32566032799807e-07</v>
+        <v>5.33026926112931e-07</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>4.921217724406294e-07</v>
+        <v>4.924701178911603e-07</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>4.484408973801339e-07</v>
+        <v>4.486831333717178e-07</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>4.030613487159807e-07</v>
+        <v>4.032114711086194e-07</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.575210675458476e-07</v>
+        <v>3.576006296558975e-07</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.133579949673929e-07</v>
+        <v>3.133961075675661e-07</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.721100720783348e-07</v>
+        <v>2.721434033976981e-07</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.353152399763308e-07</v>
+        <v>2.353880157003063e-07</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.045114397590462e-07</v>
+        <v>2.046754430294113e-07</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.812366125241872e-07</v>
+        <v>1.815511839390742e-07</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.670286993694163e-07</v>
+        <v>1.675607369833126e-07</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.629516644601258e-07</v>
+        <v>1.637678518354247e-07</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.634369589958419e-07</v>
+        <v>1.644950098070614e-07</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.580356096582029e-07</v>
+        <v>1.591042418401325e-07</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.362029681666472e-07</v>
+        <v>1.368604726149887e-07</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>9.679483270859597e-08</v>
+        <v>9.665701847662784e-08</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>6.334101839619201e-08</v>
+        <v>6.265861556494264e-08</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.949272091269023e-08</v>
+        <v>4.884960450643699e-08</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>4.615935508986116e-08</v>
+        <v>4.581960921954475e-08</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>4.349030344509704e-08</v>
+        <v>4.338501987581313e-08</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.92971902058904e-08</v>
+        <v>3.929397184280348e-08</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.412233635329627e-08</v>
+        <v>3.412134384548047e-08</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.851141155710567e-08</v>
+        <v>2.844548108073684e-08</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.30023321234225e-08</v>
+        <v>2.283656250026703e-08</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.798012783876481e-08</v>
+        <v>1.770373903531103e-08</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.368986755724911e-08</v>
+        <v>1.330874749618637e-08</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.037145821150791e-08</v>
+        <v>9.907887889491346e-09</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>8.264806734178037e-09</v>
+        <v>7.757460221828685e-09</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>7.609820057891518e-09</v>
+        <v>7.113764499796184e-09</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>8.646405115282107e-09</v>
+        <v>8.233100729993401e-09</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.161446883898536e-08</v>
+        <v>1.137176891902181e-08</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.675391816163245e-08</v>
+        <v>1.678606907347826e-08</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.470660419795535e-08</v>
+        <v>2.51151928036111e-08</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>4.07815729698184e-08</v>
+        <v>4.144429666237439e-08</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>7.056778886480662e-08</v>
+        <v>7.109128596412889e-08</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.061653321058496e-07</v>
+        <v>1.063563571705741e-07</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.356960003508815e-07</v>
+        <v>1.357025137004674e-07</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.552120260036351e-07</v>
+        <v>1.553181134729855e-07</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.708702554079782e-07</v>
+        <v>1.71234809499851e-07</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.894831981456767e-07</v>
+        <v>1.901229617013527e-07</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.178627457481577e-07</v>
+        <v>2.18652321073141e-07</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.595577249999159e-07</v>
+        <v>2.602777540001966e-07</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.072370144312393e-07</v>
+        <v>3.077348243344439e-07</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.513046628804248e-07</v>
+        <v>3.515277071300788e-07</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.821647191857797e-07</v>
+        <v>3.821605774413071e-07</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.912712480087659e-07</v>
+        <v>3.911811921940811e-07</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.841989977701658e-07</v>
+        <v>3.841714678602665e-07</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>3.766327371214732e-07</v>
+        <v>3.767613921913201e-07</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>3.844769422942051e-07</v>
+        <v>3.847993142648248e-07</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>4.194755223790634e-07</v>
+        <v>4.199870946942456e-07</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>4.755097091630814e-07</v>
+        <v>4.762243611591456e-07</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>5.416679168914595e-07</v>
+        <v>5.426341419055931e-07</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>6.070385012002836e-07</v>
+        <v>6.083394067688658e-07</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>6.607098452510958e-07</v>
+        <v>6.624631528870869e-07</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>6.947605021175966e-07</v>
+        <v>6.970943644514751e-07</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>7.124861347348539e-07</v>
+        <v>7.15448417664179e-07</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>7.198122124513795e-07</v>
+        <v>7.233492267046409e-07</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>7.226642046156659e-07</v>
+        <v>7.266207057522834e-07</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>7.267755715086338e-07</v>
+        <v>7.309002982615832e-07</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>7.348653248473515e-07</v>
+        <v>7.388979483968942e-07</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>7.472574208095251e-07</v>
+        <v>7.509976281778252e-07</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>7.642097431957572e-07</v>
+        <v>7.675191430499104e-07</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>7.859801758066261e-07</v>
+        <v>7.887822984586601e-07</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>8.128266024427327e-07</v>
+        <v>8.151068998496062e-07</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>8.450069069046704e-07</v>
+        <v>8.468127526682745e-07</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>8.827789729930514e-07</v>
+        <v>8.842196623602079e-07</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>9.263958412739758e-07</v>
+        <v>9.276423486207391e-07</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>9.754796970399894e-07</v>
+        <v>9.767330870007864e-07</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.028402630158547e-06</v>
+        <v>1.029831461489473e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.08338956808365e-06</v>
+        <v>1.085122524786175e-06</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.138665438269371e-06</v>
+        <v>1.140791329590337e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.19245516816976e-06</v>
+        <v>1.195022928601381e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.242983685238889e-06</v>
+        <v>1.246002374518755e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.288475916930761e-06</v>
+        <v>1.291914720041833e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.327156790699448e-06</v>
+        <v>1.330945017870062e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.357253732997227e-06</v>
+        <v>1.361280897932729e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.377510924302299e-06</v>
+        <v>1.381642921273097e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.387819155694227e-06</v>
+        <v>1.391934154409801e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.388223384962658e-06</v>
+        <v>1.392216656791226e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.37876856989723e-06</v>
+        <v>1.382552487865749e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.359499668287597e-06</v>
+        <v>1.363003707081764e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.330461637923403e-06</v>
+        <v>1.333632373887653e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.291699436594274e-06</v>
+        <v>1.294500547731781e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.243258022089889e-06</v>
+        <v>1.245670288062567e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.185258423332878e-06</v>
+        <v>1.187279317675829e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.118978641777927e-06</v>
+        <v>1.12061612985326e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.046596992650273e-06</v>
+        <v>1.047864705441267e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>9.703155161229034e-07</v>
+        <v>9.712326230544805e-07</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>8.923362523687086e-07</v>
+        <v>8.929274613074329e-07</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>8.148612415605758e-07</v>
+        <v>8.151567988146536e-07</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>7.400925238714963e-07</v>
+        <v>7.401282141907777e-07</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>6.702321394743574e-07</v>
+        <v>6.700492860503339e-07</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>6.0748212854208e-07</v>
+        <v>6.071275930078863e-07</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>5.534955914560746e-07</v>
+        <v>5.530202960514446e-07</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>5.076617655267126e-07</v>
+        <v>5.071145984110383e-07</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>4.687863715492005e-07</v>
+        <v>4.68212615880335e-07</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>4.356751297214216e-07</v>
+        <v>4.351164636540715e-07</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>4.071337602412477e-07</v>
+        <v>4.066282569269723e-07</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>3.819679833065876e-07</v>
+        <v>3.815501108937993e-07</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>3.589835191153112e-07</v>
+        <v>3.586841407492758e-07</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.369860878652921e-07</v>
+        <v>3.368324616881284e-07</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.147855450571981e-07</v>
+        <v>3.148013100280901e-07</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.91967331728942e-07</v>
+        <v>2.921698481723519e-07</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.698001276966196e-07</v>
+        <v>2.70194705543839e-07</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.497732267143577e-07</v>
+        <v>2.503523690271382e-07</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.333759225362524e-07</v>
+        <v>2.341193255068055e-07</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.220975089164102e-07</v>
+        <v>2.229720618674068e-07</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.174272796089366e-07</v>
+        <v>2.183870649935081e-07</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.20854528367943e-07</v>
+        <v>2.218408217696801e-07</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.338685489475319e-07</v>
+        <v>2.348098190804852e-07</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.579291697751874e-07</v>
+        <v>2.587413053757364e-07</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>2.9284561388086e-07</v>
+        <v>2.934446338652532e-07</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.359339341381751e-07</v>
+        <v>3.362551857618902e-07</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.843031682112001e-07</v>
+        <v>3.843029211482619e-07</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>4.350623537640115e-07</v>
+        <v>4.347178001069924e-07</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.853205284606166e-07</v>
+        <v>4.846297827206365e-07</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>5.321867299650917e-07</v>
+        <v>5.311688290718175e-07</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>5.727699959415066e-07</v>
+        <v>5.714648992431533e-07</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>6.04179364053878e-07</v>
+        <v>6.026479533172076e-07</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>6.240734403925866e-07</v>
+        <v>6.223936351403412e-07</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>6.329870517407627e-07</v>
+        <v>6.312334784860575e-07</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>6.323928046989777e-07</v>
+        <v>6.306301681835695e-07</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>6.237638219592955e-07</v>
+        <v>6.220469015055538e-07</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.085732262137811e-07</v>
+        <v>6.069468757246885e-07</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>5.882941401544974e-07</v>
+        <v>5.867932881136495e-07</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.643996864734956e-07</v>
+        <v>5.630493359451009e-07</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.383629878628612e-07</v>
+        <v>5.37178216491741e-07</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>5.116571463004684e-07</v>
+        <v>5.106431064458884e-07</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.854776238057283e-07</v>
+        <v>4.846313363329766e-07</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.600462200891198e-07</v>
+        <v>4.593628650607285e-07</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.353714151651939e-07</v>
+        <v>4.348457100686127e-07</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>4.114616890485133e-07</v>
+        <v>4.110878887961097e-07</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.883255217536311e-07</v>
+        <v>3.880974186826898e-07</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.659713932951307e-07</v>
+        <v>3.658823171678539e-07</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.444077836875645e-07</v>
+        <v>3.444506016910719e-07</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.236431729454955e-07</v>
+        <v>3.238102896918245e-07</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>3.036860410834778e-07</v>
+        <v>3.03969398609583e-07</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.845448681160923e-07</v>
+        <v>2.849359458838458e-07</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>2.662281340578926e-07</v>
+        <v>2.667179489540843e-07</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.487443189234342e-07</v>
+        <v>2.493234252597711e-07</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.321019027272956e-07</v>
+        <v>2.327603922404024e-07</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.163093654840318e-07</v>
+        <v>2.170368673354505e-07</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.013751872081991e-07</v>
+        <v>2.021608679843895e-07</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.873078479143738e-07</v>
+        <v>1.88140411626713e-07</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.74115827617112e-07</v>
+        <v>1.749835157018945e-07</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.618034867989576e-07</v>
+        <v>1.626941951672895e-07</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.503476665004494e-07</v>
+        <v>1.51249727459047e-07</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.397139322416603e-07</v>
+        <v>1.406164348686767e-07</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.298678154778306e-07</v>
+        <v>1.30760606590753e-07</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.207748476642057e-07</v>
+        <v>1.216485318198556e-07</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.124005602560278e-07</v>
+        <v>1.132464997505605e-07</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.047104847085499e-07</v>
+        <v>1.05520799577455e-07</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>9.767015247701379e-08</v>
+        <v>9.843772049511479e-08</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>9.12450950166622e-08</v>
+        <v>9.196355169811683e-08</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>8.540084378274657e-08</v>
+        <v>8.606458238104654e-08</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>8.010293023050945e-08</v>
+        <v>8.07071017384806e-08</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>7.531688581519439e-08</v>
+        <v>7.585739896499661e-08</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>7.100824199205132e-08</v>
+        <v>7.148176325517861e-08</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>6.714253021632358e-08</v>
+        <v>6.754648380360397e-08</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>6.368528194325525e-08</v>
+        <v>6.40178498048509e-08</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>6.060202862809638e-08</v>
+        <v>6.086215045350355e-08</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>5.785830172608701e-08</v>
+        <v>5.804567494413594e-08</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>5.54196326924756e-08</v>
+        <v>5.553471247133066e-08</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>5.325155298250961e-08</v>
+        <v>5.329555222966931e-08</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>5.131959405143064e-08</v>
+        <v>5.129448341372748e-08</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>4.958928735448785e-08</v>
+        <v>4.949779521808848e-08</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>4.802616434692367e-08</v>
+        <v>4.787177683732874e-08</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>4.659575648398533e-08</v>
+        <v>4.63827174660296e-08</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>4.526359522091953e-08</v>
+        <v>4.499690629877191e-08</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.399521201296946e-08</v>
+        <v>4.368063253013284e-08</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>4.275613831538193e-08</v>
+        <v>4.240018535469331e-08</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>4.15138125542995e-08</v>
+        <v>4.112369814752633e-08</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>4.025790715858607e-08</v>
+        <v>3.984080619239686e-08</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.899247022212935e-08</v>
+        <v>3.855504709379061e-08</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.77217908364927e-08</v>
+        <v>3.727019151859236e-08</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.6450158093236e-08</v>
+        <v>3.599001013368344e-08</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.518186108392262e-08</v>
+        <v>3.471827360594865e-08</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>3.392118890011591e-08</v>
+        <v>3.345875260227276e-08</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>3.267243063337579e-08</v>
+        <v>3.221521778953715e-08</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>3.143987537526562e-08</v>
+        <v>3.099143983462661e-08</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>3.022781221734868e-08</v>
+        <v>2.979118940442584e-08</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.9040530251185e-08</v>
+        <v>2.861823716581634e-08</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.788231856833892e-08</v>
+        <v>2.747635378568383e-08</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.675746626037055e-08</v>
+        <v>2.636930993090992e-08</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.567026241884317e-08</v>
+        <v>2.530087626837929e-08</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.46249961353199e-08</v>
+        <v>2.427482346497649e-08</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.362595650136107e-08</v>
+        <v>2.329492218758331e-08</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.267743260852985e-08</v>
+        <v>2.236494310308435e-08</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.178362253635557e-08</v>
+        <v>2.148857478537096e-08</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.094609474770974e-08</v>
+        <v>2.066713389010164e-08</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>2.016345033157778e-08</v>
+        <v>1.989926049716778e-08</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.943413150410008e-08</v>
+        <v>1.918345138291247e-08</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.875658048141508e-08</v>
+        <v>1.851820332367683e-08</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.812923947966371e-08</v>
+        <v>1.790201309580449e-08</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.755055071498463e-08</v>
+        <v>1.733337747563678e-08</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.701895640351814e-08</v>
+        <v>1.681079323951671e-08</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.653289876140442e-08</v>
+        <v>1.633275716378711e-08</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.609082000478233e-08</v>
+        <v>1.589776602478957e-08</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.569116234979207e-08</v>
+        <v>1.550431659886696e-08</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.53323680125737e-08</v>
+        <v>1.515090566236202e-08</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.501287920926631e-08</v>
+        <v>1.483602999161654e-08</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.473113815601e-08</v>
+        <v>1.455818636297329e-08</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.44855870689447e-08</v>
+        <v>1.43158715527749e-08</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.427466816420973e-08</v>
+        <v>1.410758233736337e-08</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.409682365794505e-08</v>
+        <v>1.393181549308136e-08</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.395049576629055e-08</v>
+        <v>1.378706779627142e-08</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.383412670538569e-08</v>
+        <v>1.367183602327573e-08</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.374615869137044e-08</v>
+        <v>1.358461695043692e-08</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.368503394038438e-08</v>
+        <v>1.352390735409728e-08</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.364919466856734e-08</v>
+        <v>1.348820401059931e-08</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.363708309205909e-08</v>
+        <v>1.347600369628547e-08</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.364714142699932e-08</v>
+        <v>1.348580318749815e-08</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.367781188952782e-08</v>
+        <v>1.351609926057981e-08</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.372753669578427e-08</v>
+        <v>1.356538869187282e-08</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.379475806190851e-08</v>
+        <v>1.363216825771972e-08</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.387791820404024e-08</v>
+        <v>1.371493473446289e-08</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.397545933831913e-08</v>
+        <v>1.381218489844467e-08</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.408582368088508e-08</v>
+        <v>1.392241552600768e-08</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.420745344787775e-08</v>
+        <v>1.404412339349425e-08</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.433879085543678e-08</v>
+        <v>1.41758052772467e-08</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.447827811970215e-08</v>
+        <v>1.43159579536077e-08</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.462435745681334e-08</v>
+        <v>1.446307819891943e-08</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.477547108291037e-08</v>
+        <v>1.461566278952459e-08</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.493023500681002e-08</v>
+        <v>1.477238046729914e-08</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.50899204156746e-08</v>
+        <v>1.493452723764155e-08</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.525787081381076e-08</v>
+        <v>1.510544963609623e-08</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.543748467665042e-08</v>
+        <v>1.528854859140204e-08</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.563216047962543e-08</v>
+        <v>1.548722503229781e-08</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.584529669816819e-08</v>
+        <v>1.570487988752293e-08</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.608029180771056e-08</v>
+        <v>1.594491408581623e-08</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.634054428368434e-08</v>
+        <v>1.62107285559165e-08</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.662945260152205e-08</v>
+        <v>1.650572422656321e-08</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.695041523665521e-08</v>
+        <v>1.683330202649487e-08</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.730683066451641e-08</v>
+        <v>1.719686288445106e-08</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.770209736053745e-08</v>
+        <v>1.759980772917052e-08</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.813961380014995e-08</v>
+        <v>1.804553748939187e-08</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.862277845878673e-08</v>
+        <v>1.853745309385492e-08</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.915498981187946e-08</v>
+        <v>1.907895547129829e-08</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.973964633485964e-08</v>
+        <v>1.967344555046047e-08</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.038014650316036e-08</v>
+        <v>2.032432426008152e-08</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.107988879221317e-08</v>
+        <v>2.103499252889996e-08</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.184227167744938e-08</v>
+        <v>2.180885128565408e-08</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>2.267069363430241e-08</v>
+        <v>2.26493014590843e-08</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.356855313820365e-08</v>
+        <v>2.355974397792896e-08</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.453924866458424e-08</v>
+        <v>2.454357977092617e-08</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.558701562909807e-08</v>
+        <v>2.560503791697775e-08</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.672508997981489e-08</v>
+        <v>2.675725349829435e-08</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.79721861009438e-08</v>
+        <v>2.801878249533247e-08</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.9347096003777e-08</v>
+        <v>2.940825770034456e-08</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>3.086861169960197e-08</v>
+        <v>3.094431190557829e-08</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.255552519971137e-08</v>
+        <v>3.26455779032866e-08</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.442662851539391e-08</v>
+        <v>3.45306884857184e-08</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.650071365793755e-08</v>
+        <v>3.661827644512189e-08</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.879657263863602e-08</v>
+        <v>3.892697457375103e-08</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>4.133299746877749e-08</v>
+        <v>4.147541566385424e-08</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>4.412878015964929e-08</v>
+        <v>4.428223250767906e-08</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>4.720271272254644e-08</v>
+        <v>4.736605789748076e-08</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>5.057358716875648e-08</v>
+        <v>5.07455246255071e-08</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>5.425969092983928e-08</v>
+        <v>5.44387363231724e-08</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>5.827584306282711e-08</v>
+        <v>5.846015928203066e-08</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>6.263540457645251e-08</v>
+        <v>6.282273071505643e-08</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>6.735173143379975e-08</v>
+        <v>6.75393825437714e-08</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>7.243817959794142e-08</v>
+        <v>7.262304668968558e-08</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>7.790810503194875e-08</v>
+        <v>7.808665507430765e-08</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>8.377486369890798e-08</v>
+        <v>8.394313961916131e-08</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>9.005181156189068e-08</v>
+        <v>9.020543224575556e-08</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>9.675230458396705e-08</v>
+        <v>9.688646487559798e-08</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.038658540076204e-07</v>
+        <v>1.0397551576389e-07</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.112730787808586e-07</v>
+        <v>1.113538433638188e-07</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.188235310785737e-07</v>
+        <v>1.188718882759649e-07</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.263667607313633e-07</v>
+        <v>1.26380088775398e-07</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.337523175697983e-07</v>
+        <v>1.337288831371609e-07</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.408297514244761e-07</v>
+        <v>1.407687096363231e-07</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.474486121259741e-07</v>
+        <v>1.473500065479339e-07</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.53458449504871e-07</v>
+        <v>1.533232121470443e-07</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.587088133917621e-07</v>
+        <v>1.585387647087213e-07</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.630492536172255e-07</v>
+        <v>1.628471025080151e-07</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.66329320011843e-07</v>
+        <v>1.660986638199797e-07</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.683985624062044e-07</v>
+        <v>1.681438869196769e-07</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.691065306308905e-07</v>
+        <v>1.688332100821593e-07</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.683027745164868e-07</v>
+        <v>1.680170715824847e-07</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.658368438935759e-07</v>
+        <v>1.655459096957075e-07</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.615582885927419e-07</v>
+        <v>1.61270162696884e-07</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.553166584445754e-07</v>
+        <v>1.550402688610768e-07</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.470137614773614e-07</v>
+        <v>1.4675864925293e-07</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.369017484916873e-07</v>
+        <v>1.366762213532983e-07</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>1.253767781424804e-07</v>
+        <v>1.251871515555619e-07</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>1.128354517939362e-07</v>
+        <v>1.126860466292285e-07</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>9.967437081029317e-08</v>
+        <v>9.956751334384854e-08</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>8.629013655574387e-08</v>
+        <v>8.622615846892681e-08</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>7.307935039451649e-08</v>
+        <v>7.305658877400364e-08</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>6.043861369083863e-08</v>
+        <v>6.045341102861865e-08</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>4.87645278089038e-08</v>
+        <v>4.881123200227761e-08</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>3.845369411294024e-08</v>
+        <v>3.852465846452087e-08</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>2.990240608568184e-08</v>
+        <v>2.998799104967937e-08</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>2.333642371576861e-08</v>
+        <v>2.342596415354713e-08</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.852807980141474e-08</v>
+        <v>1.861245679280693e-08</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.517518038365122e-08</v>
+        <v>1.524724393817065e-08</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.297553150350078e-08</v>
+        <v>1.303010056034185e-08</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>1.162693920199651e-08</v>
+        <v>1.166080163003454e-08</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.082720952016474e-08</v>
+        <v>1.083912211795587e-08</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.027514658175752e-08</v>
+        <v>1.026582829954207e-08</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>9.76871075767763e-09</v>
+        <v>9.740169325621705e-09</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>9.287787955356257e-09</v>
+        <v>9.24208442414341e-09</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>8.831752645722461e-09</v>
+        <v>8.770869039388097e-09</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>8.399979299705223e-09</v>
+        <v>8.325818615636565e-09</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>7.991842388232372e-09</v>
+        <v>7.906228597168438e-09</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>7.606716382232902e-09</v>
+        <v>7.511394428264547e-09</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>7.243975752635738e-09</v>
+        <v>7.140611553205632e-09</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>6.902994970368821e-09</v>
+        <v>6.793175416271444e-09</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>6.583148506361094e-09</v>
+        <v>6.468381461742746e-09</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>6.283810831541415e-09</v>
+        <v>6.165525133900223e-09</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>6.004356416837853e-09</v>
+        <v>5.883901877023745e-09</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>5.744159733179279e-09</v>
+        <v>5.622807135394014e-09</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>5.502595251494512e-09</v>
+        <v>5.381536353291659e-09</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>5.279037442711713e-09</v>
+        <v>5.159384974996663e-09</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>5.072860777759891e-09</v>
+        <v>4.955648444789849e-09</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>4.883439727567272e-09</v>
+        <v>4.769622206951265e-09</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>4.710148763062654e-09</v>
+        <v>4.600601705761524e-09</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>4.552362355174773e-09</v>
+        <v>4.447882385501174e-09</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>4.409454974831947e-09</v>
+        <v>4.310759690450362e-09</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>4.280801092962923e-09</v>
+        <v>4.188529064889647e-09</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>4.165775180496403e-09</v>
+        <v>4.080485953099541e-09</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>4.063751708360781e-09</v>
+        <v>3.985925799360269e-09</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>3.974105147484768e-09</v>
+        <v>3.904144047952354e-09</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>3.89620996879703e-09</v>
+        <v>3.834436143156271e-09</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>3.829440643226027e-09</v>
+        <v>3.776097529252312e-09</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>3.773171641700484e-09</v>
+        <v>3.728423650521004e-09</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>3.726777435148901e-09</v>
+        <v>3.690709951242683e-09</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>3.689632494499933e-09</v>
+        <v>3.662251875697809e-09</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>3.661111290682204e-09</v>
+        <v>3.642344868166821e-09</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>3.640588294624266e-09</v>
+        <v>3.6302843729301e-09</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>3.627437977254747e-09</v>
+        <v>3.625365834268086e-09</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>3.621034809502252e-09</v>
+        <v>3.626884696461194e-09</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>3.620753262295372e-09</v>
+        <v>3.634136403789845e-09</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>3.625967806562718e-09</v>
+        <v>3.646416400534462e-09</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.636052913232877e-09</v>
+        <v>3.663020130975444e-09</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.650383053234471e-09</v>
+        <v>3.68324303939324e-09</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.668332697496076e-09</v>
+        <v>3.706380570068237e-09</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.689276316946326e-09</v>
+        <v>3.731728167280892e-09</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>3.712588382513809e-09</v>
+        <v>3.758581275311606e-09</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.737643600102065e-09</v>
+        <v>3.786235605045563e-09</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.764062482058572e-09</v>
+        <v>3.814265761656166e-09</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.792176720945481e-09</v>
+        <v>3.843053262034004e-09</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.822445881001461e-09</v>
+        <v>3.873124707468745e-09</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>3.855329526465265e-09</v>
+        <v>3.905006699250136e-09</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.891287221575566e-09</v>
+        <v>3.939225838667845e-09</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.930778530571022e-09</v>
+        <v>3.976308727011529e-09</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.974263017690402e-09</v>
+        <v>4.016781965570949e-09</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>4.022200247172371e-09</v>
+        <v>4.061172155635771e-09</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>4.075049783255577e-09</v>
+        <v>4.110005898495638e-09</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>4.133271190178812e-09</v>
+        <v>4.163809795440333e-09</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>4.19732403218073e-09</v>
+        <v>4.22311044775951e-09</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>4.267667873499961e-09</v>
+        <v>4.288434456742798e-09</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>4.344762278375329e-09</v>
+        <v>4.360308423680009e-09</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>4.429066811045394e-09</v>
+        <v>4.439258949860709e-09</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>4.521041035749003e-09</v>
+        <v>4.525812636574734e-09</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>4.621144516724784e-09</v>
+        <v>4.620496085111706e-09</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>4.729836818211332e-09</v>
+        <v>4.723835896761224e-09</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>4.847577504447538e-09</v>
+        <v>4.836358672813169e-09</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>4.974826139672011e-09</v>
+        <v>4.958591014557146e-09</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>5.112042288123313e-09</v>
+        <v>5.09105952328272e-09</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>5.259685514040397e-09</v>
+        <v>5.23429080027983e-09</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>5.418215381661834e-09</v>
+        <v>5.38881144683805e-09</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>5.588091455226172e-09</v>
+        <v>5.555148064246923e-09</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>5.769773298972409e-09</v>
+        <v>5.733827253796439e-09</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>5.963720477138914e-09</v>
+        <v>5.925375616775971e-09</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>6.170392553964739e-09</v>
+        <v>6.130319754475558e-09</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>6.390249093688406e-09</v>
+        <v>6.349186268184724e-09</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>6.623749660548404e-09</v>
+        <v>6.58250175919295e-09</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>6.871353818783843e-09</v>
+        <v>6.830792828790347e-09</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>7.133521132633224e-09</v>
+        <v>7.094586078266408e-09</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>7.410711166334985e-09</v>
+        <v>7.374408108910566e-09</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>7.703383484128322e-09</v>
+        <v>7.670785522013019e-09</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>8.011997650251692e-09</v>
+        <v>7.984244918863218e-09</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>8.337013228943491e-09</v>
+        <v>8.315312900750545e-09</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>8.678889784443003e-09</v>
+        <v>8.664516068965297e-09</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>9.038086880988308e-09</v>
+        <v>9.032381024796532e-09</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>9.415064082818753e-09</v>
+        <v>9.419434369534613e-09</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>9.810280918640404e-09</v>
+        <v>9.826202666220738e-09</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.022317711221558e-08</v>
+        <v>1.025211472589072e-08</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.064950563049507e-08</v>
+        <v>1.069263081176352e-08</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.10841865906544e-08</v>
+        <v>1.114231467982241e-08</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.152214010986751e-08</v>
+        <v>1.159573008604904e-08</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.195828630530992e-08</v>
+        <v>1.204744078642673e-08</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.238754529415597e-08</v>
+        <v>1.249201053693751e-08</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.280483719358002e-08</v>
+        <v>1.292400309356349e-08</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.320508212075755e-08</v>
+        <v>1.333798221228792e-08</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.358320019286292e-08</v>
+        <v>1.372851164909287e-08</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.393411152707055e-08</v>
+        <v>1.40901551599605e-08</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.42527362405558e-08</v>
+        <v>1.441747650087394e-08</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.453399445049307e-08</v>
+        <v>1.47050394278153e-08</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.477280627405691e-08</v>
+        <v>1.494740769676688e-08</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.496409182842246e-08</v>
+        <v>1.513914506371158e-08</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.510277123076413e-08</v>
+        <v>1.527481528463153e-08</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.518376459825691e-08</v>
+        <v>1.534898211550946e-08</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.520199204807535e-08</v>
+        <v>1.535620931232767e-08</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.515284992229831e-08</v>
+        <v>1.52915766042696e-08</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.50400954625208e-08</v>
+        <v>1.515922246576457e-08</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.487461884564664e-08</v>
+        <v>1.497101365977038e-08</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.466753893651439e-08</v>
+        <v>1.4739064724707e-08</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.442997459996207e-08</v>
+        <v>1.447549019899376e-08</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.417304470082819e-08</v>
+        <v>1.419240462105056e-08</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.390786810395138e-08</v>
+        <v>1.390192252929741e-08</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.364556367416953e-08</v>
+        <v>1.361615846215353e-08</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.339725027632145e-08</v>
+        <v>1.334722695803914e-08</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.317404677524506e-08</v>
+        <v>1.310724255537349e-08</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.298707203577897e-08</v>
+        <v>1.290831979257658e-08</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.284744492276165e-08</v>
+        <v>1.276257320806824e-08</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.276628430103121e-08</v>
+        <v>1.268211734026795e-08</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.275470903542618e-08</v>
+        <v>1.267906672759559e-08</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.282378491447776e-08</v>
+        <v>1.276547949582448e-08</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.297546658423908e-08</v>
+        <v>1.294372990825414e-08</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.319234310432219e-08</v>
+        <v>1.319560933462594e-08</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.345452621470013e-08</v>
+        <v>1.350027610247539e-08</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.374212765534664e-08</v>
+        <v>1.383688853933887e-08</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.403525916623452e-08</v>
+        <v>1.418460497275163e-08</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.431403248733759e-08</v>
+        <v>1.45225837302501e-08</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.455855935862886e-08</v>
+        <v>1.482998313936978e-08</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.474895152008159e-08</v>
+        <v>1.50859615276465e-08</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.486599629087594e-08</v>
+        <v>1.527028038211395e-08</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.49117504861994e-08</v>
+        <v>1.538169067083704e-08</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.491331586849823e-08</v>
+        <v>1.544130357910074e-08</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.489923119505099e-08</v>
+        <v>1.547151324624336e-08</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.489803522313626e-08</v>
+        <v>1.549471381160303e-08</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.493826671003256e-08</v>
+        <v>1.553329941451793e-08</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.504846441301856e-08</v>
+        <v>1.560966419432633e-08</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.525422812447677e-08</v>
+        <v>1.574423206842671e-08</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.553149141426588e-08</v>
+        <v>1.592413173473037e-08</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.581481775181359e-08</v>
+        <v>1.610875822218689e-08</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.603750825963488e-08</v>
+        <v>1.625666030820118e-08</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.613286406024497e-08</v>
+        <v>1.632638677017828e-08</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.605246023409469e-08</v>
+        <v>1.628697594326316e-08</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.582963714351968e-08</v>
+        <v>1.615440080305827e-08</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.552059487464929e-08</v>
+        <v>1.595775618926888e-08</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.518153457919274e-08</v>
+        <v>1.572613755326091e-08</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.485962022505304e-08</v>
+        <v>1.548416455726949e-08</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.456172752162366e-08</v>
+        <v>1.523650355136884e-08</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.428350940595785e-08</v>
+        <v>1.498226265382844e-08</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.402061833987101e-08</v>
+        <v>1.47205497475498e-08</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.376870678517785e-08</v>
+        <v>1.44504727154337e-08</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.352342720369381e-08</v>
+        <v>1.417113944038165e-08</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.328043205723427e-08</v>
+        <v>1.388165780529516e-08</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.303537380761399e-08</v>
+        <v>1.358113569307499e-08</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.278390491664859e-08</v>
+        <v>1.326868098662293e-08</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.25216778461528e-08</v>
+        <v>1.294340156883968e-08</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.224434505794204e-08</v>
+        <v>1.26044053226268e-08</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.194755901383147e-08</v>
+        <v>1.225080013088553e-08</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.162697217563658e-08</v>
+        <v>1.188169387651748e-08</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.127848512349719e-08</v>
+        <v>1.149633709265832e-08</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.090399002254966e-08</v>
+        <v>1.109742504393495e-08</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.051153328804803e-08</v>
+        <v>1.069119124723792e-08</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.010944199391532e-08</v>
+        <v>1.028403057805635e-08</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>9.706043214074564e-09</v>
+        <v>9.88233791187936e-09</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>9.309664022447719e-09</v>
+        <v>9.492508124194968e-09</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>8.928631492957831e-09</v>
+        <v>9.120936090492301e-09</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>8.571272699527894e-09</v>
+        <v>8.774016686260414e-09</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>8.245914716079942e-09</v>
+        <v>8.45814478698743e-09</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>7.960884616536992e-09</v>
+        <v>8.179715268162435e-09</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>7.724509474821916e-09</v>
+        <v>7.945123005274374e-09</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>7.54511636485697e-09</v>
+        <v>7.760762873811576e-09</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>7.43103236056514e-09</v>
+        <v>7.633029749263116e-09</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>7.389713669760993e-09</v>
+        <v>7.568226879918715e-09</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>7.423683064946958e-09</v>
+        <v>7.572138448216607e-09</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>7.533728089663853e-09</v>
+        <v>7.650366066429778e-09</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>7.72063436968433e-09</v>
+        <v>7.808511145055605e-09</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>7.985187530780777e-09</v>
+        <v>8.052175094591292e-09</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>8.328173198725314e-09</v>
+        <v>8.386959325533733e-09</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>8.750376999291007e-09</v>
+        <v>8.818465248380768e-09</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>9.252584558250046e-09</v>
+        <v>9.352294273629374e-09</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>9.835582018635724e-09</v>
+        <v>9.994048316225165e-09</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.059353160405891e-08</v>
+        <v>1.084039247521696e-08</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.197445953297542e-08</v>
+        <v>1.233309074340284e-08</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.450427734328732e-08</v>
+        <v>1.498968474037309e-08</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.832588112924733e-08</v>
+        <v>1.894265137266013e-08</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.297215127100316e-08</v>
+        <v>2.371118803076859e-08</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>2.792153610246822e-08</v>
+        <v>2.875976882808263e-08</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.265248395754323e-08</v>
+        <v>3.355286787797334e-08</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.664344317012976e-08</v>
+        <v>3.755495929381282e-08</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>3.937926759817035e-08</v>
+        <v>4.023724864679401e-08</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>4.075322514049042e-08</v>
+        <v>4.150013697631535e-08</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>4.130587552731158e-08</v>
+        <v>4.192425345507045e-08</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>4.163515897464005e-08</v>
+        <v>4.215052744623796e-08</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>4.233901569847974e-08</v>
+        <v>4.281988831299455e-08</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>4.395348573378337e-08</v>
+        <v>4.450576545068596e-08</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>4.641364036014355e-08</v>
+        <v>4.712625298802311e-08</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>4.931660693504085e-08</v>
+        <v>5.023092910620749e-08</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>5.225574674498982e-08</v>
+        <v>5.336526521866166e-08</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>5.482442107651315e-08</v>
+        <v>5.607473273881694e-08</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>5.664145915869078e-08</v>
+        <v>5.793435509858273e-08</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>5.761217912805526e-08</v>
+        <v>5.885158641081186e-08</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>5.782228297243331e-08</v>
+        <v>5.894319125363994e-08</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>5.736028542396469e-08</v>
+        <v>5.83291980052413e-08</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>5.631470121478755e-08</v>
+        <v>5.712963504378827e-08</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>5.477401822912488e-08</v>
+        <v>5.546415604368281e-08</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>5.282549302653473e-08</v>
+        <v>5.34352296585797e-08</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.055466474659219e-08</v>
+        <v>5.11213553171576e-08</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>4.80469450752829e-08</v>
+        <v>4.859925363807024e-08</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>4.538774569859333e-08</v>
+        <v>4.594564523997208e-08</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>4.266247830250265e-08</v>
+        <v>4.323725074151031e-08</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>3.99565545729997e-08</v>
+        <v>4.05507907613417e-08</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>3.735432399249165e-08</v>
+        <v>3.796204508247355e-08</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>3.490305115868906e-08</v>
+        <v>3.5513945941413e-08</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>3.260412839668369e-08</v>
+        <v>3.320879469175415e-08</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>3.045610339949017e-08</v>
+        <v>3.104637308415254e-08</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>2.84575238601294e-08</v>
+        <v>2.902646286926994e-08</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.660693747162174e-08</v>
+        <v>2.714884579776772e-08</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.490289192698263e-08</v>
+        <v>2.541330362030213e-08</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.334393491923257e-08</v>
+        <v>2.381961808753464e-08</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.192861414139152e-08</v>
+        <v>2.236757095012614e-08</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.065547728647572e-08</v>
+        <v>2.105694395873371e-08</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.952307204750622e-08</v>
+        <v>1.98875188640194e-08</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.852994611749975e-08</v>
+        <v>1.885907741664076e-08</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.767464718947615e-08</v>
+        <v>1.797140136725861e-08</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.69552120813278e-08</v>
+        <v>1.722373209952948e-08</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.635581961068043e-08</v>
+        <v>1.660065300010329e-08</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.584550734914443e-08</v>
+        <v>1.607073213346955e-08</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.53925447129003e-08</v>
+        <v>1.560172506449472e-08</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.496520111812678e-08</v>
+        <v>1.516138735804345e-08</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.453174598100379e-08</v>
+        <v>1.471747457898165e-08</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.406044871771133e-08</v>
+        <v>1.423774229217523e-08</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.351957874442807e-08</v>
+        <v>1.368994606248882e-08</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.287743047148165e-08</v>
+        <v>1.304186657962062e-08</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.212217014707454e-08</v>
+        <v>1.228126027320987e-08</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.129754094758955e-08</v>
+        <v>1.145175109109139e-08</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.045692766798144e-08</v>
+        <v>1.060665501192363e-08</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>9.653715103205069e-09</v>
+        <v>9.799288014365043e-09</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>8.941288048213065e-09</v>
+        <v>9.082966077071937e-09</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>8.373031297960755e-09</v>
+        <v>8.511005178703273e-09</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>8.002329647401211e-09</v>
+        <v>8.136721297915774e-09</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>7.88256789148916e-09</v>
+        <v>8.013430413367805e-09</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>8.067130825178419e-09</v>
+        <v>8.19444850371684e-09</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>8.609403243423421e-09</v>
+        <v>8.733091547620944e-09</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>9.562769941178281e-09</v>
+        <v>9.682675523737885e-09</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.098061571339564e-08</v>
+        <v>1.109651641072395e-08</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.291632535503214e-08</v>
+        <v>1.302793018723944e-08</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.545161690121738e-08</v>
+        <v>1.555908304041616e-08</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.902274459502192e-08</v>
+        <v>1.913314623295622e-08</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.430723993691199e-08</v>
+        <v>2.443897062978143e-08</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.198725880641491e-08</v>
+        <v>3.217011585129503e-08</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.274495708308215e-08</v>
+        <v>4.302014151792456e-08</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>5.726249064644612e-08</v>
+        <v>5.768260725007841e-08</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>7.550514638880948e-08</v>
+        <v>7.612205725634325e-08</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>9.088490512880447e-08</v>
+        <v>9.163869231408484e-08</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>9.330165011994096e-08</v>
+        <v>9.396110765152998e-08</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>8.384016629356581e-08</v>
+        <v>8.417806736518436e-08</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>8.753794073593737e-08</v>
+        <v>8.773057211679172e-08</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>9.96988715999691e-08</v>
+        <v>9.989886438104065e-08</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.118980488094827e-07</v>
+        <v>1.121791883482927e-07</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.164675554837177e-07</v>
+        <v>1.168285253003204e-07</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.137193025217514e-07</v>
+        <v>1.141231504992659e-07</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.087490030514044e-07</v>
+        <v>1.091468009062779e-07</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.066685496791647e-07</v>
+        <v>1.070000880719662e-07</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.089370152651371e-07</v>
+        <v>1.091589055062737e-07</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.110550154395924e-07</v>
+        <v>1.111854900170206e-07</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.108782461406092e-07</v>
+        <v>1.109611325651766e-07</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.087430173454377e-07</v>
+        <v>1.08813549429678e-07</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.05063328630327e-07</v>
+        <v>1.051470757422661e-07</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.002531795715319e-07</v>
+        <v>1.003660466346876e-07</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>9.472656974531104e-08</v>
+        <v>9.48747972386935e-08</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>8.889749872790767e-08</v>
+        <v>8.907766268601912e-08</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>8.316444524499886e-08</v>
+        <v>8.336399126427678e-08</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>7.770327669116085e-08</v>
+        <v>7.790817903889881e-08</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>7.252328761523994e-08</v>
+        <v>7.272378029261239e-08</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>6.762975570804175e-08</v>
+        <v>6.782047065310199e-08</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>6.302795866037079e-08</v>
+        <v>6.320792574805108e-08</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>5.872317416301934e-08</v>
+        <v>5.889582120513082e-08</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>5.472067990679566e-08</v>
+        <v>5.489383265202837e-08</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>5.102575358249302e-08</v>
+        <v>5.121163571641592e-08</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>4.764372134666441e-08</v>
+        <v>4.785894061470014e-08</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>4.459365167108926e-08</v>
+        <v>4.485526509032577e-08</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>4.192718241699258e-08</v>
+        <v>4.224337079886743e-08</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>3.970067010727654e-08</v>
+        <v>4.006938697998244e-08</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>3.797047126484177e-08</v>
+        <v>3.837944287332654e-08</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>3.67867041593155e-08</v>
+        <v>3.721389316473058e-08</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>3.609463382280108e-08</v>
+        <v>3.651603321312082e-08</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>3.575248463684828e-08</v>
+        <v>3.614858759910913e-08</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>3.561584400505566e-08</v>
+        <v>3.597183993618922e-08</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>3.554029933102285e-08</v>
+        <v>3.584607383785603e-08</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>3.538143801834892e-08</v>
+        <v>3.563157291760376e-08</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>3.499484747063298e-08</v>
+        <v>3.518862078892681e-08</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>3.425256393578064e-08</v>
+        <v>3.439386025612451e-08</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>3.319420097035102e-08</v>
+        <v>3.329059806144575e-08</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>3.19572263693086e-08</v>
+        <v>3.201946183651745e-08</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.068033418212483e-08</v>
+        <v>3.072229878384216e-08</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.950221845826761e-08</v>
+        <v>2.954095610591881e-08</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.856090111762947e-08</v>
+        <v>2.861657335368277e-08</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.789117529621624e-08</v>
+        <v>2.798160566215974e-08</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.731433341518261e-08</v>
+        <v>2.744372395778364e-08</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.663476737565803e-08</v>
+        <v>2.679299772291896e-08</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.578937426910636e-08</v>
+        <v>2.59616724759454e-08</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.481199453508817e-08</v>
+        <v>2.498601246021198e-08</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.373868681848357e-08</v>
+        <v>2.39046620193386e-08</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>2.260550976417373e-08</v>
+        <v>2.275626549694619e-08</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>2.144852201703669e-08</v>
+        <v>2.157946723665255e-08</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.030378222195458e-08</v>
+        <v>2.041291158207963e-08</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.920714389933403e-08</v>
+        <v>1.92950234196893e-08</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.818059030591768e-08</v>
+        <v>1.824938821384025e-08</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.722365551529801e-08</v>
+        <v>1.727557365152907e-08</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.633382698756384e-08</v>
+        <v>1.637095780300126e-08</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.550859218280658e-08</v>
+        <v>1.553291873850501e-08</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.474543856111741e-08</v>
+        <v>1.475883452828821e-08</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.404185358258548e-08</v>
+        <v>1.404608324259671e-08</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.339532470730205e-08</v>
+        <v>1.33920429516785e-08</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.280333939535814e-08</v>
+        <v>1.279409172578133e-08</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.226338510684321e-08</v>
+        <v>1.224960763515139e-08</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.177294930184877e-08</v>
+        <v>1.175596875003689e-08</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.132951944046445e-08</v>
+        <v>1.131055314068421e-08</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.093058298278126e-08</v>
+        <v>1.091073887734106e-08</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.057362738889001e-08</v>
+        <v>1.055390403025498e-08</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.025614011888059e-08</v>
+        <v>1.023742666967259e-08</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>9.975608632843865e-09</v>
+        <v>9.958684865841468e-09</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>9.729520390870569e-09</v>
+        <v>9.715056689009074e-09</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>9.515362853050783e-09</v>
+        <v>9.503920209422217e-09</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>9.330623479475267e-09</v>
+        <v>9.322653497328381e-09</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>9.172789730234682e-09</v>
+        <v>9.16863462297494e-09</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>9.039349065419269e-09</v>
+        <v>9.039241656608863e-09</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>8.927788945119797e-09</v>
+        <v>8.931852668477639e-09</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>8.835596829426594e-09</v>
+        <v>8.843845728828326e-09</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>8.760260178430295e-09</v>
+        <v>8.772598907908277e-09</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>8.69926645222142e-09</v>
+        <v>8.715490275964738e-09</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>8.650103110890542e-09</v>
+        <v>8.669897903244995e-09</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>8.610257614528094e-09</v>
+        <v>8.633199859996215e-09</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>8.577518886031076e-09</v>
+        <v>8.603092199195802e-09</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>8.551354720426652e-09</v>
+        <v>8.579041846818051e-09</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>8.531813920756365e-09</v>
+        <v>8.561128575631914e-09</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>8.518945851499993e-09</v>
+        <v>8.549432750610953e-09</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>8.512799877137284e-09</v>
+        <v>8.544034736728703e-09</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>8.51342536214802e-09</v>
+        <v>8.545014898958735e-09</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>8.520871671011968e-09</v>
+        <v>8.552453602274598e-09</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>8.53518816820891e-09</v>
+        <v>8.56643121164986e-09</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>8.556424218218615e-09</v>
+        <v>8.587028092058075e-09</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>8.58462918552082e-09</v>
+        <v>8.614324608472771e-09</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>8.619852434595351e-09</v>
+        <v>8.648401125867554e-09</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>8.662143329921916e-09</v>
+        <v>8.689338009215918e-09</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>8.711551235980365e-09</v>
+        <v>8.737215623491501e-09</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>8.768125517250423e-09</v>
+        <v>8.792114333667815e-09</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>8.831915538211807e-09</v>
+        <v>8.854114504718363e-09</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>8.902970663344407e-09</v>
+        <v>8.923296501616814e-09</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>8.981340257127936e-09</v>
+        <v>8.999740689336667e-09</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>9.067073684042083e-09</v>
+        <v>9.083527432851409e-09</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>9.160220308566772e-09</v>
+        <v>9.174737097134736e-09</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>9.260829495181706e-09</v>
+        <v>9.273450047160143e-09</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>9.36895060836655e-09</v>
+        <v>9.379746647901084e-09</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>9.484633012601275e-09</v>
+        <v>9.493707264331303e-09</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>9.607926072365436e-09</v>
+        <v>9.615412261424157e-09</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>9.738879152139032e-09</v>
+        <v>9.74494200415342e-09</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>9.877541616401721e-09</v>
+        <v>9.882376857492538e-09</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.002396282963315e-08</v>
+        <v>1.002779718641494e-08</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.017819215631333e-08</v>
+        <v>1.018128335589444e-08</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.034027896092193e-08</v>
+        <v>1.034291573090447e-08</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.051027260793856e-08</v>
+        <v>1.051277467641843e-08</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.068822246184328e-08</v>
+        <v>1.069094055741018e-08</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.087417788711572e-08</v>
+        <v>1.087749373885313e-08</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.106818824823548e-08</v>
+        <v>1.107251458572065e-08</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.127030290968268e-08</v>
+        <v>1.127608346298666e-08</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.148057123593671e-08</v>
+        <v>1.148828073562434e-08</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.169904259147774e-08</v>
+        <v>1.170918676860764e-08</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.192665130155492e-08</v>
+        <v>1.19397436612165e-08</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.216851318026567e-08</v>
+        <v>1.218496525524987e-08</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.243097787875385e-08</v>
+        <v>1.245106684656907e-08</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.272039522699916e-08</v>
+        <v>1.274426390517763e-08</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.30431150549803e-08</v>
+        <v>1.307077190107801e-08</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.340548719267708e-08</v>
+        <v>1.343680630427386e-08</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.381386147006848e-08</v>
+        <v>1.384858258476792e-08</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.427458771713327e-08</v>
+        <v>1.431231621256278e-08</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.479401576385152e-08</v>
+        <v>1.483422265766232e-08</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.537849544020208e-08</v>
+        <v>1.542051739006918e-08</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.603437657616355e-08</v>
+        <v>1.607741587978575e-08</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.676760621048148e-08</v>
+        <v>1.681073592661034e-08</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.757693655404425e-08</v>
+        <v>1.761919197647484e-08</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.845491565667388e-08</v>
+        <v>1.849537319304268e-08</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.939388827439847e-08</v>
+        <v>1.943166803083099e-08</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.038619916324285e-08</v>
+        <v>2.042046494435366e-08</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.142419307923534e-08</v>
+        <v>2.145415238812802e-08</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>2.250021477840158e-08</v>
+        <v>2.252511881666878e-08</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>2.360660901676709e-08</v>
+        <v>2.362575268449048e-08</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>2.473572055036036e-08</v>
+        <v>2.474844244611067e-08</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>2.587989413520695e-08</v>
+        <v>2.588557655604392e-08</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.703147452733232e-08</v>
+        <v>2.702954346880476e-08</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.818280648276508e-08</v>
+        <v>2.817273163891082e-08</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.932623475753069e-08</v>
+        <v>2.93075295208766e-08</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>3.045410410765468e-08</v>
+        <v>3.04263255692167e-08</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>3.155875928916558e-08</v>
+        <v>3.152150823844867e-08</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>3.264056865343957e-08</v>
+        <v>3.259352985843927e-08</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>3.373691843409739e-08</v>
+        <v>3.368004647823326e-08</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>3.489586337017894e-08</v>
+        <v>3.482943621025653e-08</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>3.616545919654329e-08</v>
+        <v>3.609007816775337e-08</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>3.7593761648053e-08</v>
+        <v>3.751035146397151e-08</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>3.922882645956729e-08</v>
+        <v>3.913863521215543e-08</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>4.111870936594464e-08</v>
+        <v>4.102330852554879e-08</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>4.331146610204872e-08</v>
+        <v>4.321275051740046e-08</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>4.585512118789129e-08</v>
+        <v>4.575530788950187e-08</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>4.878802956785705e-08</v>
+        <v>4.868928708966571e-08</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>5.212523604850165e-08</v>
+        <v>5.202879084538505e-08</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>5.58783435414345e-08</v>
+        <v>5.578434804588353e-08</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>6.005895495826346e-08</v>
+        <v>5.996648758038327e-08</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>6.467867321060796e-08</v>
+        <v>6.458573833811787e-08</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>6.97491012100763e-08</v>
+        <v>6.965262920830983e-08</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>7.528184186827517e-08</v>
+        <v>7.517768908018011e-08</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>8.128849809682636e-08</v>
+        <v>8.117144684296471e-08</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>8.777507103511281e-08</v>
+        <v>8.76390275860506e-08</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>9.467920598163044e-08</v>
+        <v>9.451961632363792e-08</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.01892861223888e-07</v>
+        <v>1.01708325684882e-07</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.093071590421279e-07</v>
+        <v>1.090994618370282e-07</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.168132217166128e-07</v>
+        <v>1.165873309473419e-07</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.24302171527585e-07</v>
+        <v>1.240662391830686e-07</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.316651307552875e-07</v>
+        <v>1.314304927114539e-07</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.387932216799824e-07</v>
+        <v>1.38574397699763e-07</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.455775665819124e-07</v>
+        <v>1.453922603152414e-07</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.519033880719598e-07</v>
+        <v>1.517720294924448e-07</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.575719199381735e-07</v>
+        <v>1.575111513839131e-07</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.623218662937343e-07</v>
+        <v>1.62339692824998e-07</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.658904408704388e-07</v>
+        <v>1.659861146794816e-07</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.680148574000701e-07</v>
+        <v>1.681788778111325e-07</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.684323296144163e-07</v>
+        <v>1.68646443083724e-07</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.668802070970665e-07</v>
+        <v>1.671174099019396e-07</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.633162595339963e-07</v>
+        <v>1.635451608624865e-07</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.583669086313975e-07</v>
+        <v>1.58564966165927e-07</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.527848910729774e-07</v>
+        <v>1.529409113229474e-07</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.473229434861492e-07</v>
+        <v>1.474370817871374e-07</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.42581082135971e-07</v>
+        <v>1.426626668037096e-07</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.38561534767425e-07</v>
+        <v>1.386205502520206e-07</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.35120285371173e-07</v>
+        <v>1.35165288684974e-07</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.321133179378634e-07</v>
+        <v>1.321514386554595e-07</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.293966164581538e-07</v>
+        <v>1.294335567163763e-07</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.268261649226985e-07</v>
+        <v>1.268661994206204e-07</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.242579473221542e-07</v>
+        <v>1.243039233210897e-07</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.215479476471708e-07</v>
+        <v>1.216012849706758e-07</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.185521498884078e-07</v>
+        <v>1.186128409222796e-07</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.15151579741996e-07</v>
+        <v>1.152183612364866e-07</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.113714557111898e-07</v>
+        <v>1.114427980364442e-07</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.072885011859577e-07</v>
+        <v>1.073629616886787e-07</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.02979503836347e-07</v>
+        <v>1.030557272807975e-07</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>9.852125133241591e-08</v>
+        <v>9.859796990041895e-08</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>9.399053134422294e-08</v>
+        <v>9.406656463516199e-08</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>8.946413154181451e-08</v>
+        <v>8.953838657263324e-08</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>8.501883959524927e-08</v>
+        <v>8.509031080045158e-08</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>8.073106542683603e-08</v>
+        <v>8.079883529039765e-08</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>7.664059291508918e-08</v>
+        <v>7.670389323996899e-08</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>7.272049876102523e-08</v>
+        <v>7.277882225960063e-08</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>6.893677903197913e-08</v>
+        <v>6.898989117081325e-08</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>6.525542979529637e-08</v>
+        <v>6.530336879513817e-08</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>6.164244711832215e-08</v>
+        <v>6.168552395410637e-08</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>5.806382706839195e-08</v>
+        <v>5.810262546923914e-08</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>5.4485565712851e-08</v>
+        <v>5.452094216206742e-08</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>5.087365911904452e-08</v>
+        <v>5.090674285412227e-08</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>4.719592526716779e-08</v>
+        <v>4.722810175076401e-08</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>4.346338089162253e-08</v>
+        <v>4.349589989758834e-08</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>3.973097327484201e-08</v>
+        <v>3.97645503351658e-08</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>3.605561798382289e-08</v>
+        <v>3.609041653167508e-08</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>3.249423058557511e-08</v>
+        <v>3.252986195530809e-08</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.910372664709566e-08</v>
+        <v>2.913925007424381e-08</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.594102173539127e-08</v>
+        <v>2.597494435667094e-08</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>2.306303141746781e-08</v>
+        <v>2.309330827077733e-08</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>2.052667126032351e-08</v>
+        <v>2.055070528474321e-08</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.838483293009578e-08</v>
+        <v>1.839979970747249e-08</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.667302801920596e-08</v>
+        <v>1.66772784013204e-08</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.542207676581488e-08</v>
+        <v>1.541551548157502e-08</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.46631702134374e-08</v>
+        <v>1.464725869255927e-08</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.445143852246996e-08</v>
+        <v>1.442937677657966e-08</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.485722779225933e-08</v>
+        <v>1.483389491383756e-08</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.580780334435414e-08</v>
+        <v>1.578755003804474e-08</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.717272065973496e-08</v>
+        <v>1.715848937167743e-08</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.882139567669316e-08</v>
+        <v>1.881471846699095e-08</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>2.062240164837986e-08</v>
+        <v>2.062342305815186e-08</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>2.242484267732343e-08</v>
+        <v>2.24328480423636e-08</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.405830503999062e-08</v>
+        <v>2.40722501252814e-08</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.535152259259323e-08</v>
+        <v>2.537005672352838e-08</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.613322919134811e-08</v>
+        <v>2.61546952537327e-08</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.623229098714421e-08</v>
+        <v>2.625472530234717e-08</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.561507222175463e-08</v>
+        <v>2.563607478877782e-08</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.464545121623924e-08</v>
+        <v>2.466181057483996e-08</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>2.375872304034024e-08</v>
+        <v>2.376634887453518e-08</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.336699774698719e-08</v>
+        <v>2.336108395678689e-08</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.344738741794233e-08</v>
+        <v>2.342547167605561e-08</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.359046579911015e-08</v>
+        <v>2.355514826697376e-08</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.337335594961175e-08</v>
+        <v>2.333239388274864e-08</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>2.246879675128671e-08</v>
+        <v>2.243369496021527e-08</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>2.095428636550358e-08</v>
+        <v>2.093433037875808e-08</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.901440791263566e-08</v>
+        <v>1.901508536319097e-08</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.68337451947069e-08</v>
+        <v>1.685674580992984e-08</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.45968820137421e-08</v>
+        <v>1.464009761539145e-08</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.248838974647536e-08</v>
+        <v>1.254591456797044e-08</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.064828839775295e-08</v>
+        <v>1.071155666374351e-08</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>9.071945410688465e-09</v>
+        <v>9.133424911280596e-09</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>7.725421257074342e-09</v>
+        <v>7.779361675219921e-09</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>6.574776408707361e-09</v>
+        <v>6.617209320204066e-09</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>5.586071337383603e-09</v>
+        <v>5.614810210874914e-09</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>4.725366514896557e-09</v>
+        <v>4.740006711871725e-09</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.958723184680896e-09</v>
+        <v>3.960641959662619e-09</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.288174599587619e-09</v>
+        <v>3.280538032002536e-09</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.79630319766152e-09</v>
+        <v>2.783392797382927e-09</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.465817874133826e-09</v>
+        <v>2.451271255226195e-09</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>2.259365486703384e-09</v>
+        <v>2.245904348260135e-09</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>2.139592893068559e-09</v>
+        <v>2.129023019212069e-09</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>2.069146950928349e-09</v>
+        <v>2.06235821080994e-09</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.015817839646121e-09</v>
+        <v>2.012905870520691e-09</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.971781283161232e-09</v>
+        <v>1.972624414840647e-09</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.93643271238194e-09</v>
+        <v>1.940862774390228e-09</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.909168666511848e-09</v>
+        <v>1.916971014305774e-09</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.889385684754664e-09</v>
+        <v>1.900299199723717e-09</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.876480306314063e-09</v>
+        <v>1.890197395780462e-09</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.869849070393694e-09</v>
+        <v>1.886015667612389e-09</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.868888516197238e-09</v>
+        <v>1.887104080355911e-09</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.872995182928362e-09</v>
+        <v>1.892812699147417e-09</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.88156560979074e-09</v>
+        <v>1.902491589123319e-09</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.893996335988029e-09</v>
+        <v>1.915490815419998e-09</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.90968413445591e-09</v>
+        <v>1.931160859150453e-09</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.928070692423836e-09</v>
+        <v>1.948932136117914e-09</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.948695720119853e-09</v>
+        <v>1.968409515231027e-09</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.971111858510711e-09</v>
+        <v>1.989220878441801e-09</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.994871748563106e-09</v>
+        <v>2.010994107702197e-09</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.019528031243727e-09</v>
+        <v>2.033357084964169e-09</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.04463334751933e-09</v>
+        <v>2.055937692179733e-09</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.069740338356609e-09</v>
+        <v>2.078363811300844e-09</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.094401644722253e-09</v>
+        <v>2.100263324279461e-09</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.118169907583018e-09</v>
+        <v>2.121264113067595e-09</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.140597767905577e-09</v>
+        <v>2.140994059617189e-09</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>2.161237866656681e-09</v>
+        <v>2.159081045880251e-09</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.179642844803023e-09</v>
+        <v>2.17515295380874e-09</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>2.195365343311304e-09</v>
+        <v>2.18883766535462e-09</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>2.207958003148263e-09</v>
+        <v>2.199763062469891e-09</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>2.216973465280597e-09</v>
+        <v>2.207557027106515e-09</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>2.221964370675017e-09</v>
+        <v>2.211847441216466e-09</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.222483360298246e-09</v>
+        <v>2.212262186751729e-09</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.218083075116988e-09</v>
+        <v>2.20842914566427e-09</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.208788387483297e-09</v>
+        <v>2.20041332638544e-09</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.196802298679569e-09</v>
+        <v>2.190295947747887e-09</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.18495538118488e-09</v>
+        <v>2.180739147168398e-09</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.176078265750141e-09</v>
+        <v>2.174405116003768e-09</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.173001583126299e-09</v>
+        <v>2.173956045610824e-09</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.178555964064287e-09</v>
+        <v>2.182054127346379e-09</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.195572039315018e-09</v>
+        <v>2.201361552567226e-09</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.226880439629456e-09</v>
+        <v>2.234540512630212e-09</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.275311795758473e-09</v>
+        <v>2.284253198892088e-09</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.34369673845309e-09</v>
+        <v>2.353161802709756e-09</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.434865898464205e-09</v>
+        <v>2.443928515439995e-09</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.551649906542635e-09</v>
+        <v>2.559215528439503e-09</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.696879393439524e-09</v>
+        <v>2.701685033065303e-09</v>
       </c>
     </row>
   </sheetData>
